--- a/ResultadoEleicoesDistritos/VIANA DO CASTELO_PONTE DA BARCA.xlsx
+++ b/ResultadoEleicoesDistritos/VIANA DO CASTELO_PONTE DA BARCA.xlsx
@@ -597,61 +597,61 @@
         <v>3866</v>
       </c>
       <c r="H2" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I2" t="n">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="J2" t="n">
-        <v>1583</v>
+        <v>1594</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S2" t="n">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="T2" t="n">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="U2" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="V2" t="n">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>2508</v>
+        <v>2491</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
